--- a/教师工号.xlsx
+++ b/教师工号.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\文档\法学院\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{17E46004-9274-4672-827E-7A70E6039220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="教师列表" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教师列表!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教师列表!$A$1:$C$73</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <t>工号</t>
   </si>
@@ -33,66 +27,138 @@
     <t>姓名</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>20572</t>
   </si>
   <si>
+    <t>胡鸿高</t>
+  </si>
+  <si>
     <t>25152</t>
   </si>
   <si>
+    <t>孟庆</t>
+  </si>
+  <si>
     <t>20558</t>
   </si>
   <si>
+    <t>郭建</t>
+  </si>
+  <si>
     <t>20569</t>
   </si>
   <si>
+    <t>王俊</t>
+  </si>
+  <si>
     <t>20605</t>
   </si>
   <si>
+    <t>唐海红</t>
+  </si>
+  <si>
+    <t>20608</t>
+  </si>
+  <si>
+    <t>朱伟芳</t>
+  </si>
+  <si>
+    <t>教务员</t>
+  </si>
+  <si>
     <t>20570</t>
   </si>
   <si>
+    <t>孙晓屏</t>
+  </si>
+  <si>
     <t>20557</t>
   </si>
   <si>
+    <t>张乃根</t>
+  </si>
+  <si>
     <t>02009</t>
   </si>
   <si>
+    <t>姚军</t>
+  </si>
+  <si>
     <t>20588</t>
   </si>
   <si>
+    <t>龚柏华</t>
+  </si>
+  <si>
     <t>20549</t>
   </si>
   <si>
+    <t>张光杰</t>
+  </si>
+  <si>
     <t>20550</t>
   </si>
   <si>
+    <t>王蔚</t>
+  </si>
+  <si>
     <t>20414</t>
   </si>
   <si>
+    <t>季立刚</t>
+  </si>
+  <si>
     <t>01359</t>
   </si>
   <si>
+    <t>吴建超</t>
+  </si>
+  <si>
     <t>20591</t>
   </si>
   <si>
+    <t>陆志安</t>
+  </si>
+  <si>
     <t>20589</t>
   </si>
   <si>
+    <t>陈力</t>
+  </si>
+  <si>
     <t>02010</t>
   </si>
   <si>
+    <t>吕萍</t>
+  </si>
+  <si>
     <t>07041</t>
   </si>
   <si>
+    <t>李小宁</t>
+  </si>
+  <si>
     <t>60038</t>
   </si>
   <si>
+    <t>朱淑娣</t>
+  </si>
+  <si>
     <t>90016</t>
   </si>
   <si>
+    <t>潘伟杰</t>
+  </si>
+  <si>
     <t>90093</t>
   </si>
   <si>
+    <t>何力</t>
+  </si>
+  <si>
     <t>00027</t>
   </si>
   <si>
@@ -108,6 +174,9 @@
     <t>00058</t>
   </si>
   <si>
+    <t>侯健</t>
+  </si>
+  <si>
     <t>00143</t>
   </si>
   <si>
@@ -121,6 +190,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -133,6 +207,9 @@
     </r>
   </si>
   <si>
+    <t>陈梁</t>
+  </si>
+  <si>
     <t>04208</t>
   </si>
   <si>
@@ -170,6 +247,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -183,6 +265,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>高凌</t>
     </r>
     <r>
@@ -202,6 +289,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -220,9 +312,45 @@
     <t>04754</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宇</t>
+    </r>
+  </si>
+  <si>
     <t>04751</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>梁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咏</t>
+    </r>
+  </si>
+  <si>
     <t>04915</t>
   </si>
   <si>
@@ -244,6 +372,9 @@
     <t>06120</t>
   </si>
   <si>
+    <t>蒋云蔚</t>
+  </si>
+  <si>
     <t>06121</t>
   </si>
   <si>
@@ -329,13 +460,17 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>3364</t>
@@ -346,6 +481,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -392,6 +532,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -408,6 +553,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -430,6 +580,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -452,6 +607,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -468,6 +628,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -483,168 +648,33 @@
     <t>葛江虬</t>
   </si>
   <si>
-    <t>教务员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宇</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>梁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咏</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡鸿高</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孟庆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭建</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王俊</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐海红</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姚军</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王蔚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>季立刚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕萍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李小宁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱淑娣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆志安</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴建超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱伟芳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙晓屏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张乃根</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>龚柏华</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张光杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘伟杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>何力</t>
-  </si>
-  <si>
-    <t>侯健</t>
-  </si>
-  <si>
-    <t>陈梁</t>
-  </si>
-  <si>
-    <t>蒋云蔚</t>
-  </si>
-  <si>
     <t>L0824</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李璐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>L0400</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>邓双丽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -656,26 +686,355 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -683,46 +1042,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -771,7 +1415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,26 +1448,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -856,23 +1483,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1043,652 +1653,660 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="1:2">
+      <c r="A56" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="1:2">
+      <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25" spans="1:2">
+      <c r="A59" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="60" ht="14.25" spans="1:2">
+      <c r="A60" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
+    <row r="61" ht="14.25" spans="1:2">
+      <c r="A61" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>20608</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="62" ht="14.25" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="1:2">
+      <c r="A63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="67" ht="14.25" spans="1:2">
+      <c r="A67" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="B67" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="68" ht="14.25" spans="1:2">
+      <c r="A68" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="B68" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="69" ht="14.25" spans="1:2">
+      <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B69" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="70" ht="14.25" spans="1:2">
+      <c r="A70" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B70" s="6" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="71" ht="14.25" spans="1:2">
+      <c r="A71" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A66" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A70" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="8" t="s">
+    </row>
+    <row r="72" ht="14.25" spans="1:2">
+      <c r="A72" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="8" t="s">
+    </row>
+    <row r="73" ht="14.25" spans="1:2">
+      <c r="A73" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="B73" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A1:C73">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A71" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A5 A8 A9:A20 A22:A71" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>